--- a/outputs-HGR-r202/f__Erysipelotrichaceae.xlsx
+++ b/outputs-HGR-r202/f__Erysipelotrichaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,66 +1151,134 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT59590.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01525015305832592</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6013809490521792</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06647522775901951</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.959590406326368e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03881823672991013</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.000211879566275817</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01638959206983336</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0748751393226892</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03615332161554594</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.07737096394959138</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01682191768719819</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01042111175482055</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02678995196074958</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0003228381616514541</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.01871122616845079</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.531553352954123e-06</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6013809490521792</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>g__Amedibacillus</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>g__Amedibacillus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9766.fa</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>0.002364552009641042</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>0.007300814626944973</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>0.9447320918755435</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>3.713174301792898e-06</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>0.007556837589791167</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>0.0006994219496496345</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>7.031288171322759e-05</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>0.006521392318125394</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>0.002802629273132982</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>0.002243238583472633</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.0002621651008868946</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>0.002835745745785316</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>4.455186248928488e-06</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>4.394491132074609e-05</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>0.02255859639318621</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>8.838025551895134e-08</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R12" t="n">
         <v>0.9447320918755435</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>g__Amedibacterium</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>g__Amedibacterium</t>
         </is>

--- a/outputs-HGR-r202/f__Erysipelotrichaceae.xlsx
+++ b/outputs-HGR-r202/f__Erysipelotrichaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -593,6 +598,11 @@
           <t>g__Clostridium_AQ</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>g__Clostridium_AQ(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -656,6 +666,11 @@
           <t>g__Amedibacterium</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>g__Amedibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -719,6 +734,11 @@
           <t>g__Amedibacterium</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>g__Amedibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -782,6 +802,11 @@
           <t>g__Amedibacterium</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>g__Amedibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -845,6 +870,11 @@
           <t>g__Amedibacterium</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>g__Amedibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -908,6 +938,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -971,6 +1006,11 @@
           <t>g__Faecalitalea</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>g__Faecalitalea(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1034,6 +1074,11 @@
           <t>g__Clostridium_AQ</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>g__Clostridium_AQ(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1097,6 +1142,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1160,6 +1210,11 @@
           <t>g__Amedibacillus</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>g__Amedibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1223,6 +1278,11 @@
           <t>g__Holdemanella</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>g__Holdemanella</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1286,6 +1346,11 @@
           <t>g__NSJ-61</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>g__NSJ-61(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1349,6 +1414,11 @@
           <t>g__Massilicoli</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>g__Massilicoli</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1408,6 +1478,11 @@
         <v>0.9447320918755435</v>
       </c>
       <c r="S15" t="inlineStr">
+        <is>
+          <t>g__Amedibacterium</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>g__Amedibacterium</t>
         </is>

--- a/outputs-HGR-r202/f__Erysipelotrichaceae.xlsx
+++ b/outputs-HGR-r202/f__Erysipelotrichaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>g__Clostridium_AQ</t>
+          <t>g__Clostridium_AQ(reject)</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>g__UBA636</t>
+          <t>g__UBA636(reject)</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>g__Holdemanella</t>
+          <t>g__Holdemanella(reject)</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>g__Faecalitalea</t>
+          <t>g__Faecalitalea(reject)</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>g__Clostridium_AQ</t>
+          <t>g__Clostridium_AQ(reject)</t>
         </is>
       </c>
     </row>
@@ -1287,270 +1287,338 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7064.fa</t>
+          <t>even_MAG-GUT59590.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0009057428521015377</v>
+        <v>0.01525015305832592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006082186718554571</v>
+        <v>0.6013809490521792</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06823831773329975</v>
+        <v>0.06647522775901951</v>
       </c>
       <c r="E13" t="n">
-        <v>7.125725419713737e-06</v>
+        <v>4.959590406326368e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0042763922730076</v>
+        <v>0.03881823672991013</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001152394834775845</v>
+        <v>0.000211879566275817</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002885707365709028</v>
+        <v>0.01638959206983336</v>
       </c>
       <c r="I13" t="n">
-        <v>2.136352647079113e-05</v>
+        <v>0.0748751393226892</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00236445916804687</v>
+        <v>0.03615332161554594</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7579069780226543</v>
+        <v>0.07737096394959138</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001280086080568159</v>
+        <v>0.01682191768719819</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001193353581456225</v>
+        <v>0.01042111175482055</v>
       </c>
       <c r="N13" t="n">
-        <v>1.926597395555314e-07</v>
+        <v>0.02678995196074958</v>
       </c>
       <c r="O13" t="n">
-        <v>6.719071996199971e-07</v>
+        <v>0.0003228381616514541</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1574284035135274</v>
+        <v>0.01871122616845079</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.838139118475677e-06</v>
+        <v>2.531553352954123e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7579069780226543</v>
+        <v>0.6013809490521792</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>g__Holdemanella</t>
+          <t>g__Amedibacillus</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>g__Holdemanella</t>
+          <t>g__Amedibacillus</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7291.fa</t>
+          <t>even_MAG-GUT7064.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.787164579167568e-05</v>
+        <v>0.0009057428521015377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01028258473134316</v>
+        <v>0.006082186718554571</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2079062211005847</v>
+        <v>0.06823831773329975</v>
       </c>
       <c r="E14" t="n">
-        <v>4.59088968997024e-06</v>
+        <v>7.125725419713737e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2214820462991137</v>
+        <v>0.0042763922730076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01100452459165118</v>
+        <v>0.001152394834775845</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004261035310357107</v>
+        <v>0.0002885707365709028</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0006786470658918732</v>
+        <v>2.136352647079113e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04626538662444007</v>
+        <v>0.00236445916804687</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0656437005601527</v>
+        <v>0.7579069780226543</v>
       </c>
       <c r="L14" t="n">
-        <v>7.406383534598406e-05</v>
+        <v>0.0001280086080568159</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002554522999042543</v>
+        <v>0.001193353581456225</v>
       </c>
       <c r="N14" t="n">
-        <v>7.638882831344365e-06</v>
+        <v>1.926597395555314e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>3.218644781517039e-06</v>
+        <v>6.719071996199971e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4297624999537709</v>
+        <v>0.1574284035135274</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.144686521166353e-05</v>
+        <v>5.838139118475677e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4297624999537709</v>
+        <v>0.7579069780226543</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>g__NSJ-61</t>
+          <t>g__Holdemanella</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>g__NSJ-61</t>
+          <t>g__Holdemanella</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74675.fa</t>
+          <t>even_MAG-GUT7291.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001193699726840416</v>
+        <v>1.787164579167568e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008218663770013498</v>
+        <v>0.01028258473134316</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06322191876423083</v>
+        <v>0.2079062211005847</v>
       </c>
       <c r="E15" t="n">
-        <v>5.521365996986112e-05</v>
+        <v>4.59088968997024e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0493413702662622</v>
+        <v>0.2214820462991137</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0007266555656992357</v>
+        <v>0.01100452459165118</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00100408035176954</v>
+        <v>0.004261035310357107</v>
       </c>
       <c r="I15" t="n">
-        <v>7.757827868307832e-05</v>
+        <v>0.0006786470658918732</v>
       </c>
       <c r="J15" t="n">
-        <v>0.006000144554627672</v>
+        <v>0.04626538662444007</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06834773612362631</v>
+        <v>0.0656437005601527</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003033437312534766</v>
+        <v>7.406383534598406e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0004854562619884146</v>
+        <v>0.002554522999042543</v>
       </c>
       <c r="N15" t="n">
-        <v>2.411410442973016e-07</v>
+        <v>7.638882831344365e-06</v>
       </c>
       <c r="O15" t="n">
-        <v>7.217037271593375e-05</v>
+        <v>3.218644781517039e-06</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0004105193406183095</v>
+        <v>0.4297624999537709</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8052079119023878</v>
+        <v>5.144686521166353e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8052079119023878</v>
+        <v>0.4297624999537709</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>g__UBA636</t>
+          <t>g__NSJ-61</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>g__UBA636</t>
+          <t>g__NSJ-61(reject)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT74675.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.001193699726840416</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0008218663770013498</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06322191876423083</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.521365996986112e-05</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0493413702662622</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0007266555656992357</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.00100408035176954</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.757827868307832e-05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.006000144554627672</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.06834773612362631</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.003033437312534766</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0004854562619884146</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.411410442973016e-07</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.217037271593375e-05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0004105193406183095</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8052079119023878</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8052079119023878</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>g__UBA636</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>g__UBA636</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9766.fa</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>0.002364552009641042</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>0.007300814626944973</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>0.9447320918755435</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E17" t="n">
         <v>3.713174301792898e-06</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F17" t="n">
         <v>0.007556837589791167</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>0.0006994219496496345</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>7.031288171322759e-05</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>0.006521392318125394</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>0.002802629273132982</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>0.002243238583472633</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.0002621651008868946</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M17" t="n">
         <v>0.002835745745785316</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N17" t="n">
         <v>4.455186248928488e-06</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O17" t="n">
         <v>4.394491132074609e-05</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>0.02255859639318621</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>8.838025551895134e-08</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R17" t="n">
         <v>0.9447320918755435</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>g__Amedibacterium</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>g__Amedibacterium</t>
         </is>
